--- a/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Bmp2-Rgmb.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Bmp2-Rgmb.xlsx
@@ -540,16 +540,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>3.893348999999999</v>
+        <v>5.898379333333334</v>
       </c>
       <c r="H2">
-        <v>11.680047</v>
+        <v>17.695138</v>
       </c>
       <c r="I2">
-        <v>0.6666012053219901</v>
+        <v>0.7828421971437433</v>
       </c>
       <c r="J2">
-        <v>0.6666012053219902</v>
+        <v>0.7828421971437433</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -558,28 +558,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>9.012448000000001</v>
+        <v>9.101967</v>
       </c>
       <c r="N2">
-        <v>27.037344</v>
+        <v>27.305901</v>
       </c>
       <c r="O2">
-        <v>0.2887266436017198</v>
+        <v>0.2872601673725235</v>
       </c>
       <c r="P2">
-        <v>0.2887266436017197</v>
+        <v>0.2872601673725235</v>
       </c>
       <c r="Q2">
-        <v>35.088605408352</v>
+        <v>53.686854045482</v>
       </c>
       <c r="R2">
-        <v>315.797448675168</v>
+        <v>483.181686409338</v>
       </c>
       <c r="S2">
-        <v>0.1924655286334791</v>
+        <v>0.2248793805777857</v>
       </c>
       <c r="T2">
-        <v>0.1924655286334791</v>
+        <v>0.2248793805777857</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -602,16 +602,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>3.893348999999999</v>
+        <v>5.898379333333334</v>
       </c>
       <c r="H3">
-        <v>11.680047</v>
+        <v>17.695138</v>
       </c>
       <c r="I3">
-        <v>0.6666012053219901</v>
+        <v>0.7828421971437433</v>
       </c>
       <c r="J3">
-        <v>0.6666012053219902</v>
+        <v>0.7828421971437433</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -626,22 +626,22 @@
         <v>29.048748</v>
       </c>
       <c r="O3">
-        <v>0.3102060435696705</v>
+        <v>0.3055950511371977</v>
       </c>
       <c r="P3">
-        <v>0.3102060435696705</v>
+        <v>0.3055950511371977</v>
       </c>
       <c r="Q3">
-        <v>37.69897132568399</v>
+        <v>57.11351162080268</v>
       </c>
       <c r="R3">
-        <v>339.290741931156</v>
+        <v>514.021604587224</v>
       </c>
       <c r="S3">
-        <v>0.2067837225417081</v>
+        <v>0.2392327012684984</v>
       </c>
       <c r="T3">
-        <v>0.2067837225417082</v>
+        <v>0.2392327012684984</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -664,16 +664,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>3.893348999999999</v>
+        <v>5.898379333333334</v>
       </c>
       <c r="H4">
-        <v>11.680047</v>
+        <v>17.695138</v>
       </c>
       <c r="I4">
-        <v>0.6666012053219901</v>
+        <v>0.7828421971437433</v>
       </c>
       <c r="J4">
-        <v>0.6666012053219902</v>
+        <v>0.7828421971437433</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,28 +682,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>3.223096</v>
+        <v>3.905093666666666</v>
       </c>
       <c r="N4">
-        <v>9.669288</v>
+        <v>11.715281</v>
       </c>
       <c r="O4">
-        <v>0.1032564837085472</v>
+        <v>0.1232456523180152</v>
       </c>
       <c r="P4">
-        <v>0.1032564837085472</v>
+        <v>0.1232456523180152</v>
       </c>
       <c r="Q4">
-        <v>12.548637588504</v>
+        <v>23.03372377819755</v>
       </c>
       <c r="R4">
-        <v>112.937738296536</v>
+        <v>207.303514003778</v>
       </c>
       <c r="S4">
-        <v>0.06883089649742798</v>
+        <v>0.0964818972490489</v>
       </c>
       <c r="T4">
-        <v>0.06883089649742798</v>
+        <v>0.0964818972490489</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,16 +726,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>3.893348999999999</v>
+        <v>5.898379333333334</v>
       </c>
       <c r="H5">
-        <v>11.680047</v>
+        <v>17.695138</v>
       </c>
       <c r="I5">
-        <v>0.6666012053219901</v>
+        <v>0.7828421971437433</v>
       </c>
       <c r="J5">
-        <v>0.6666012053219902</v>
+        <v>0.7828421971437433</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -744,28 +744,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>6.175787666666667</v>
+        <v>6.285238333333333</v>
       </c>
       <c r="N5">
-        <v>18.527363</v>
+        <v>18.855715</v>
       </c>
       <c r="O5">
-        <v>0.1978501783969864</v>
+        <v>0.1983635642284282</v>
       </c>
       <c r="P5">
-        <v>0.1978501783969864</v>
+        <v>0.1983635642284282</v>
       </c>
       <c r="Q5">
-        <v>24.044496736229</v>
+        <v>37.07271989040778</v>
       </c>
       <c r="R5">
-        <v>216.400470626061</v>
+        <v>333.65447901367</v>
       </c>
       <c r="S5">
-        <v>0.1318871673926019</v>
+        <v>0.1552873684538467</v>
       </c>
       <c r="T5">
-        <v>0.1318871673926019</v>
+        <v>0.1552873684538467</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,16 +788,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>3.893348999999999</v>
+        <v>5.898379333333334</v>
       </c>
       <c r="H6">
-        <v>11.680047</v>
+        <v>17.695138</v>
       </c>
       <c r="I6">
-        <v>0.6666012053219901</v>
+        <v>0.7828421971437433</v>
       </c>
       <c r="J6">
-        <v>0.6666012053219902</v>
+        <v>0.7828421971437433</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,28 +806,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>3.120218333333334</v>
+        <v>2.710232666666667</v>
       </c>
       <c r="N6">
-        <v>9.360655000000001</v>
+        <v>8.130698000000001</v>
       </c>
       <c r="O6">
-        <v>0.09996065072307607</v>
+        <v>0.08553556494383548</v>
       </c>
       <c r="P6">
-        <v>0.09996065072307606</v>
+        <v>0.08553556494383548</v>
       </c>
       <c r="Q6">
-        <v>12.148098927865</v>
+        <v>15.98598034959156</v>
       </c>
       <c r="R6">
-        <v>109.332890350785</v>
+        <v>143.873823146324</v>
       </c>
       <c r="S6">
-        <v>0.06663389025677297</v>
+        <v>0.06696084959456351</v>
       </c>
       <c r="T6">
-        <v>0.06663389025677297</v>
+        <v>0.06696084959456351</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -850,16 +850,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G7">
-        <v>0.7963256666666667</v>
+        <v>0.7963256666666666</v>
       </c>
       <c r="H7">
         <v>2.388977</v>
       </c>
       <c r="I7">
-        <v>0.1363431968798167</v>
+        <v>0.1056895969732402</v>
       </c>
       <c r="J7">
-        <v>0.1363431968798167</v>
+        <v>0.1056895969732402</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,28 +868,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>9.012448000000001</v>
+        <v>9.101967</v>
       </c>
       <c r="N7">
-        <v>27.037344</v>
+        <v>27.305901</v>
       </c>
       <c r="O7">
-        <v>0.2887266436017198</v>
+        <v>0.2872601673725235</v>
       </c>
       <c r="P7">
-        <v>0.2887266436017197</v>
+        <v>0.2872601673725235</v>
       </c>
       <c r="Q7">
-        <v>7.176843661898668</v>
+        <v>7.248129939252999</v>
       </c>
       <c r="R7">
-        <v>64.59159295708801</v>
+        <v>65.23316945327699</v>
       </c>
       <c r="S7">
-        <v>0.03936591361303795</v>
+        <v>0.03036041131606754</v>
       </c>
       <c r="T7">
-        <v>0.03936591361303795</v>
+        <v>0.03036041131606754</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -912,16 +912,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G8">
-        <v>0.7963256666666667</v>
+        <v>0.7963256666666666</v>
       </c>
       <c r="H8">
         <v>2.388977</v>
       </c>
       <c r="I8">
-        <v>0.1363431968798167</v>
+        <v>0.1056895969732402</v>
       </c>
       <c r="J8">
-        <v>0.1363431968798167</v>
+        <v>0.1056895969732402</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -936,22 +936,22 @@
         <v>29.048748</v>
       </c>
       <c r="O8">
-        <v>0.3102060435696705</v>
+        <v>0.3055950511371977</v>
       </c>
       <c r="P8">
-        <v>0.3102060435696705</v>
+        <v>0.3055950511371977</v>
       </c>
       <c r="Q8">
-        <v>7.710754538977334</v>
+        <v>7.710754538977333</v>
       </c>
       <c r="R8">
-        <v>69.39679085079601</v>
+        <v>69.39679085079599</v>
       </c>
       <c r="S8">
-        <v>0.04229448367172858</v>
+        <v>0.03229821779170716</v>
       </c>
       <c r="T8">
-        <v>0.04229448367172859</v>
+        <v>0.03229821779170716</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -974,16 +974,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G9">
-        <v>0.7963256666666667</v>
+        <v>0.7963256666666666</v>
       </c>
       <c r="H9">
         <v>2.388977</v>
       </c>
       <c r="I9">
-        <v>0.1363431968798167</v>
+        <v>0.1056895969732402</v>
       </c>
       <c r="J9">
-        <v>0.1363431968798167</v>
+        <v>0.1056895969732402</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,28 +992,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>3.223096</v>
+        <v>3.905093666666666</v>
       </c>
       <c r="N9">
-        <v>9.669288</v>
+        <v>11.715281</v>
       </c>
       <c r="O9">
-        <v>0.1032564837085472</v>
+        <v>0.1232456523180152</v>
       </c>
       <c r="P9">
-        <v>0.1032564837085472</v>
+        <v>0.1232456523180152</v>
       </c>
       <c r="Q9">
-        <v>2.566634070930667</v>
+        <v>3.10972631750411</v>
       </c>
       <c r="R9">
-        <v>23.099706638376</v>
+        <v>27.98753685753699</v>
       </c>
       <c r="S9">
-        <v>0.01407831908739203</v>
+        <v>0.01302578332219512</v>
       </c>
       <c r="T9">
-        <v>0.01407831908739203</v>
+        <v>0.01302578332219512</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1036,16 +1036,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G10">
-        <v>0.7963256666666667</v>
+        <v>0.7963256666666666</v>
       </c>
       <c r="H10">
         <v>2.388977</v>
       </c>
       <c r="I10">
-        <v>0.1363431968798167</v>
+        <v>0.1056895969732402</v>
       </c>
       <c r="J10">
-        <v>0.1363431968798167</v>
+        <v>0.1056895969732402</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1054,28 +1054,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>6.175787666666667</v>
+        <v>6.285238333333333</v>
       </c>
       <c r="N10">
-        <v>18.527363</v>
+        <v>18.855715</v>
       </c>
       <c r="O10">
-        <v>0.1978501783969864</v>
+        <v>0.1983635642284282</v>
       </c>
       <c r="P10">
-        <v>0.1978501783969864</v>
+        <v>0.1983635642284282</v>
       </c>
       <c r="Q10">
-        <v>4.917938230850112</v>
+        <v>5.005096605950555</v>
       </c>
       <c r="R10">
-        <v>44.26144407765101</v>
+        <v>45.04586945355499</v>
       </c>
       <c r="S10">
-        <v>0.02697552582588717</v>
+        <v>0.02096496515747803</v>
       </c>
       <c r="T10">
-        <v>0.02697552582588717</v>
+        <v>0.02096496515747803</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1098,16 +1098,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G11">
-        <v>0.7963256666666667</v>
+        <v>0.7963256666666666</v>
       </c>
       <c r="H11">
         <v>2.388977</v>
       </c>
       <c r="I11">
-        <v>0.1363431968798167</v>
+        <v>0.1056895969732402</v>
       </c>
       <c r="J11">
-        <v>0.1363431968798167</v>
+        <v>0.1056895969732402</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1116,28 +1116,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>3.120218333333334</v>
+        <v>2.710232666666667</v>
       </c>
       <c r="N11">
-        <v>9.360655000000001</v>
+        <v>8.130698000000001</v>
       </c>
       <c r="O11">
-        <v>0.09996065072307607</v>
+        <v>0.08553556494383548</v>
       </c>
       <c r="P11">
-        <v>0.09996065072307606</v>
+        <v>0.08553556494383548</v>
       </c>
       <c r="Q11">
-        <v>2.484709944437223</v>
+        <v>2.158227835105111</v>
       </c>
       <c r="R11">
-        <v>22.36238949993501</v>
+        <v>19.424050515946</v>
       </c>
       <c r="S11">
-        <v>0.01362895468177095</v>
+        <v>0.009040219385792388</v>
       </c>
       <c r="T11">
-        <v>0.01362895468177095</v>
+        <v>0.009040219385792386</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1154,22 +1154,22 @@
         <v>20</v>
       </c>
       <c r="E12">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F12">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G12">
-        <v>0.188156</v>
+        <v>0.1290883333333333</v>
       </c>
       <c r="H12">
-        <v>0.564468</v>
+        <v>0.387265</v>
       </c>
       <c r="I12">
-        <v>0.03221519991877542</v>
+        <v>0.01713280695956549</v>
       </c>
       <c r="J12">
-        <v>0.03221519991877543</v>
+        <v>0.01713280695956549</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1178,28 +1178,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>9.012448000000001</v>
+        <v>9.101967</v>
       </c>
       <c r="N12">
-        <v>27.037344</v>
+        <v>27.305901</v>
       </c>
       <c r="O12">
-        <v>0.2887266436017198</v>
+        <v>0.2872601673725235</v>
       </c>
       <c r="P12">
-        <v>0.2887266436017197</v>
+        <v>0.2872601673725235</v>
       </c>
       <c r="Q12">
-        <v>1.695746165888</v>
+        <v>1.174957750085</v>
       </c>
       <c r="R12">
-        <v>15.261715492992</v>
+        <v>10.574619750765</v>
       </c>
       <c r="S12">
-        <v>0.009301386545506425</v>
+        <v>0.004921572994765916</v>
       </c>
       <c r="T12">
-        <v>0.009301386545506425</v>
+        <v>0.004921572994765917</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1216,22 +1216,22 @@
         <v>21</v>
       </c>
       <c r="E13">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F13">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G13">
-        <v>0.188156</v>
+        <v>0.1290883333333333</v>
       </c>
       <c r="H13">
-        <v>0.564468</v>
+        <v>0.387265</v>
       </c>
       <c r="I13">
-        <v>0.03221519991877542</v>
+        <v>0.01713280695956549</v>
       </c>
       <c r="J13">
-        <v>0.03221519991877543</v>
+        <v>0.01713280695956549</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1246,22 +1246,22 @@
         <v>29.048748</v>
       </c>
       <c r="O13">
-        <v>0.3102060435696705</v>
+        <v>0.3055950511371977</v>
       </c>
       <c r="P13">
-        <v>0.3102060435696705</v>
+        <v>0.3055950511371977</v>
       </c>
       <c r="Q13">
-        <v>1.821898742896</v>
+        <v>1.249951488246667</v>
       </c>
       <c r="R13">
-        <v>16.397088686064</v>
+        <v>11.24956339422</v>
       </c>
       <c r="S13">
-        <v>0.009993349709609295</v>
+        <v>0.005235701018932152</v>
       </c>
       <c r="T13">
-        <v>0.009993349709609297</v>
+        <v>0.005235701018932152</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1278,22 +1278,22 @@
         <v>22</v>
       </c>
       <c r="E14">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F14">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G14">
-        <v>0.188156</v>
+        <v>0.1290883333333333</v>
       </c>
       <c r="H14">
-        <v>0.564468</v>
+        <v>0.387265</v>
       </c>
       <c r="I14">
-        <v>0.03221519991877542</v>
+        <v>0.01713280695956549</v>
       </c>
       <c r="J14">
-        <v>0.03221519991877543</v>
+        <v>0.01713280695956549</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1302,28 +1302,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>3.223096</v>
+        <v>3.905093666666666</v>
       </c>
       <c r="N14">
-        <v>9.669288</v>
+        <v>11.715281</v>
       </c>
       <c r="O14">
-        <v>0.1032564837085472</v>
+        <v>0.1232456523180152</v>
       </c>
       <c r="P14">
-        <v>0.1032564837085472</v>
+        <v>0.1232456523180152</v>
       </c>
       <c r="Q14">
-        <v>0.606444850976</v>
+        <v>0.5041020329405554</v>
       </c>
       <c r="R14">
-        <v>5.458003658784</v>
+        <v>4.536918296465</v>
       </c>
       <c r="S14">
-        <v>0.003326428265580625</v>
+        <v>0.002111543969770279</v>
       </c>
       <c r="T14">
-        <v>0.003326428265580625</v>
+        <v>0.00211154396977028</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1340,22 +1340,22 @@
         <v>23</v>
       </c>
       <c r="E15">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F15">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G15">
-        <v>0.188156</v>
+        <v>0.1290883333333333</v>
       </c>
       <c r="H15">
-        <v>0.564468</v>
+        <v>0.387265</v>
       </c>
       <c r="I15">
-        <v>0.03221519991877542</v>
+        <v>0.01713280695956549</v>
       </c>
       <c r="J15">
-        <v>0.03221519991877543</v>
+        <v>0.01713280695956549</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1364,28 +1364,28 @@
         <v>1</v>
       </c>
       <c r="M15">
-        <v>6.175787666666667</v>
+        <v>6.285238333333333</v>
       </c>
       <c r="N15">
-        <v>18.527363</v>
+        <v>18.855715</v>
       </c>
       <c r="O15">
-        <v>0.1978501783969864</v>
+        <v>0.1983635642284282</v>
       </c>
       <c r="P15">
-        <v>0.1978501783969864</v>
+        <v>0.1983635642284282</v>
       </c>
       <c r="Q15">
-        <v>1.162011504209333</v>
+        <v>0.8113509410527777</v>
       </c>
       <c r="R15">
-        <v>10.458103537884</v>
+        <v>7.302158469475001</v>
       </c>
       <c r="S15">
-        <v>0.006373783051024299</v>
+        <v>0.00339852465373703</v>
       </c>
       <c r="T15">
-        <v>0.0063737830510243</v>
+        <v>0.003398524653737031</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1402,22 +1402,22 @@
         <v>24</v>
       </c>
       <c r="E16">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F16">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G16">
-        <v>0.188156</v>
+        <v>0.1290883333333333</v>
       </c>
       <c r="H16">
-        <v>0.564468</v>
+        <v>0.387265</v>
       </c>
       <c r="I16">
-        <v>0.03221519991877542</v>
+        <v>0.01713280695956549</v>
       </c>
       <c r="J16">
-        <v>0.03221519991877543</v>
+        <v>0.01713280695956549</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1426,28 +1426,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>3.120218333333334</v>
+        <v>2.710232666666667</v>
       </c>
       <c r="N16">
-        <v>9.360655000000001</v>
+        <v>8.130698000000001</v>
       </c>
       <c r="O16">
-        <v>0.09996065072307607</v>
+        <v>0.08553556494383548</v>
       </c>
       <c r="P16">
-        <v>0.09996065072307606</v>
+        <v>0.08553556494383548</v>
       </c>
       <c r="Q16">
-        <v>0.5870878007266667</v>
+        <v>0.3498594178855556</v>
       </c>
       <c r="R16">
-        <v>5.283790206540001</v>
+        <v>3.14873476097</v>
       </c>
       <c r="S16">
-        <v>0.003220252347054779</v>
+        <v>0.00146546432236011</v>
       </c>
       <c r="T16">
-        <v>0.003220252347054779</v>
+        <v>0.00146546432236011</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1470,16 +1470,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>0.6549346666666667</v>
+        <v>0.4975636666666667</v>
       </c>
       <c r="H17">
-        <v>1.964804</v>
+        <v>1.492691</v>
       </c>
       <c r="I17">
-        <v>0.1121348839282468</v>
+        <v>0.06603743367792279</v>
       </c>
       <c r="J17">
-        <v>0.1121348839282469</v>
+        <v>0.06603743367792278</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1488,28 +1488,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>9.012448000000001</v>
+        <v>9.101967</v>
       </c>
       <c r="N17">
-        <v>27.037344</v>
+        <v>27.305901</v>
       </c>
       <c r="O17">
-        <v>0.2887266436017198</v>
+        <v>0.2872601673725235</v>
       </c>
       <c r="P17">
-        <v>0.2887266436017197</v>
+        <v>0.2872601673725235</v>
       </c>
       <c r="Q17">
-        <v>5.902564626730667</v>
+        <v>4.528808074399</v>
       </c>
       <c r="R17">
-        <v>53.123081640576</v>
+        <v>40.759272669591</v>
       </c>
       <c r="S17">
-        <v>0.03237632866727114</v>
+        <v>0.01896992425117202</v>
       </c>
       <c r="T17">
-        <v>0.03237632866727114</v>
+        <v>0.01896992425117202</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1532,16 +1532,16 @@
         <v>1</v>
       </c>
       <c r="G18">
-        <v>0.6549346666666667</v>
+        <v>0.4975636666666667</v>
       </c>
       <c r="H18">
-        <v>1.964804</v>
+        <v>1.492691</v>
       </c>
       <c r="I18">
-        <v>0.1121348839282468</v>
+        <v>0.06603743367792279</v>
       </c>
       <c r="J18">
-        <v>0.1121348839282469</v>
+        <v>0.06603743367792278</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1556,22 +1556,22 @@
         <v>29.048748</v>
       </c>
       <c r="O18">
-        <v>0.3102060435696705</v>
+        <v>0.3055950511371977</v>
       </c>
       <c r="P18">
-        <v>0.3102060435696705</v>
+        <v>0.3055950511371977</v>
       </c>
       <c r="Q18">
-        <v>6.341677362821334</v>
+        <v>4.817867188985334</v>
       </c>
       <c r="R18">
-        <v>57.07509626539201</v>
+        <v>43.360804700868</v>
       </c>
       <c r="S18">
-        <v>0.03478491868952568</v>
+        <v>0.02018071292177412</v>
       </c>
       <c r="T18">
-        <v>0.03478491868952569</v>
+        <v>0.02018071292177412</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1594,16 +1594,16 @@
         <v>1</v>
       </c>
       <c r="G19">
-        <v>0.6549346666666667</v>
+        <v>0.4975636666666667</v>
       </c>
       <c r="H19">
-        <v>1.964804</v>
+        <v>1.492691</v>
       </c>
       <c r="I19">
-        <v>0.1121348839282468</v>
+        <v>0.06603743367792279</v>
       </c>
       <c r="J19">
-        <v>0.1121348839282469</v>
+        <v>0.06603743367792278</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1612,28 +1612,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>3.223096</v>
+        <v>3.905093666666666</v>
       </c>
       <c r="N19">
-        <v>9.669288</v>
+        <v>11.715281</v>
       </c>
       <c r="O19">
-        <v>0.1032564837085472</v>
+        <v>0.1232456523180152</v>
       </c>
       <c r="P19">
-        <v>0.1032564837085472</v>
+        <v>0.1232456523180152</v>
       </c>
       <c r="Q19">
-        <v>2.110917304394667</v>
+        <v>1.943032723463444</v>
       </c>
       <c r="R19">
-        <v>18.998255739552</v>
+        <v>17.487294511171</v>
       </c>
       <c r="S19">
-        <v>0.01157865381549685</v>
+        <v>0.008138826591043261</v>
       </c>
       <c r="T19">
-        <v>0.01157865381549685</v>
+        <v>0.00813882659104326</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1656,16 +1656,16 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <v>0.6549346666666667</v>
+        <v>0.4975636666666667</v>
       </c>
       <c r="H20">
-        <v>1.964804</v>
+        <v>1.492691</v>
       </c>
       <c r="I20">
-        <v>0.1121348839282468</v>
+        <v>0.06603743367792279</v>
       </c>
       <c r="J20">
-        <v>0.1121348839282469</v>
+        <v>0.06603743367792278</v>
       </c>
       <c r="K20">
         <v>3</v>
@@ -1674,28 +1674,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>6.175787666666667</v>
+        <v>6.285238333333333</v>
       </c>
       <c r="N20">
-        <v>18.527363</v>
+        <v>18.855715</v>
       </c>
       <c r="O20">
-        <v>0.1978501783969864</v>
+        <v>0.1983635642284282</v>
       </c>
       <c r="P20">
-        <v>0.1978501783969864</v>
+        <v>0.1983635642284282</v>
       </c>
       <c r="Q20">
-        <v>4.044737436872444</v>
+        <v>3.127306231007222</v>
       </c>
       <c r="R20">
-        <v>36.402636931852</v>
+        <v>28.145756079065</v>
       </c>
       <c r="S20">
-        <v>0.022185906789729</v>
+        <v>0.0130994207168512</v>
       </c>
       <c r="T20">
-        <v>0.022185906789729</v>
+        <v>0.0130994207168512</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1718,16 +1718,16 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <v>0.6549346666666667</v>
+        <v>0.4975636666666667</v>
       </c>
       <c r="H21">
-        <v>1.964804</v>
+        <v>1.492691</v>
       </c>
       <c r="I21">
-        <v>0.1121348839282468</v>
+        <v>0.06603743367792279</v>
       </c>
       <c r="J21">
-        <v>0.1121348839282469</v>
+        <v>0.06603743367792278</v>
       </c>
       <c r="K21">
         <v>3</v>
@@ -1736,28 +1736,28 @@
         <v>1</v>
       </c>
       <c r="M21">
-        <v>3.120218333333334</v>
+        <v>2.710232666666667</v>
       </c>
       <c r="N21">
-        <v>9.360655000000001</v>
+        <v>8.130698000000001</v>
       </c>
       <c r="O21">
-        <v>0.09996065072307607</v>
+        <v>0.08553556494383548</v>
       </c>
       <c r="P21">
-        <v>0.09996065072307606</v>
+        <v>0.08553556494383548</v>
       </c>
       <c r="Q21">
-        <v>2.043539154068889</v>
+        <v>1.348513303146444</v>
       </c>
       <c r="R21">
-        <v>18.39185238662</v>
+        <v>12.136619728318</v>
       </c>
       <c r="S21">
-        <v>0.01120907596622416</v>
+        <v>0.005648549197082194</v>
       </c>
       <c r="T21">
-        <v>0.01120907596622416</v>
+        <v>0.005648549197082192</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1780,16 +1780,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G22">
-        <v>0.3078316666666667</v>
+        <v>0.213213</v>
       </c>
       <c r="H22">
-        <v>0.923495</v>
+        <v>0.639639</v>
       </c>
       <c r="I22">
-        <v>0.05270551395117086</v>
+        <v>0.02829796524552828</v>
       </c>
       <c r="J22">
-        <v>0.05270551395117087</v>
+        <v>0.02829796524552828</v>
       </c>
       <c r="K22">
         <v>3</v>
@@ -1798,28 +1798,28 @@
         <v>1</v>
       </c>
       <c r="M22">
-        <v>9.012448000000001</v>
+        <v>9.101967</v>
       </c>
       <c r="N22">
-        <v>27.037344</v>
+        <v>27.305901</v>
       </c>
       <c r="O22">
-        <v>0.2887266436017198</v>
+        <v>0.2872601673725235</v>
       </c>
       <c r="P22">
-        <v>0.2887266436017197</v>
+        <v>0.2872601673725235</v>
       </c>
       <c r="Q22">
-        <v>2.774316888586667</v>
+        <v>1.940657689971</v>
       </c>
       <c r="R22">
-        <v>24.96885199728</v>
+        <v>17.465919209739</v>
       </c>
       <c r="S22">
-        <v>0.01521748614242518</v>
+        <v>0.008128878232732306</v>
       </c>
       <c r="T22">
-        <v>0.01521748614242518</v>
+        <v>0.008128878232732305</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1842,16 +1842,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G23">
-        <v>0.3078316666666667</v>
+        <v>0.213213</v>
       </c>
       <c r="H23">
-        <v>0.923495</v>
+        <v>0.639639</v>
       </c>
       <c r="I23">
-        <v>0.05270551395117086</v>
+        <v>0.02829796524552828</v>
       </c>
       <c r="J23">
-        <v>0.05270551395117087</v>
+        <v>0.02829796524552828</v>
       </c>
       <c r="K23">
         <v>3</v>
@@ -1866,22 +1866,22 @@
         <v>29.048748</v>
       </c>
       <c r="O23">
-        <v>0.3102060435696705</v>
+        <v>0.3055950511371977</v>
       </c>
       <c r="P23">
-        <v>0.3102060435696705</v>
+        <v>0.3055950511371977</v>
       </c>
       <c r="Q23">
-        <v>2.980708170473334</v>
+        <v>2.064523569108</v>
       </c>
       <c r="R23">
-        <v>26.82637353426</v>
+        <v>18.580712121972</v>
       </c>
       <c r="S23">
-        <v>0.01634956895709878</v>
+        <v>0.008647718136285858</v>
       </c>
       <c r="T23">
-        <v>0.01634956895709879</v>
+        <v>0.008647718136285856</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1904,16 +1904,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G24">
-        <v>0.3078316666666667</v>
+        <v>0.213213</v>
       </c>
       <c r="H24">
-        <v>0.923495</v>
+        <v>0.639639</v>
       </c>
       <c r="I24">
-        <v>0.05270551395117086</v>
+        <v>0.02829796524552828</v>
       </c>
       <c r="J24">
-        <v>0.05270551395117087</v>
+        <v>0.02829796524552828</v>
       </c>
       <c r="K24">
         <v>3</v>
@@ -1922,28 +1922,28 @@
         <v>1</v>
       </c>
       <c r="M24">
-        <v>3.223096</v>
+        <v>3.905093666666666</v>
       </c>
       <c r="N24">
-        <v>9.669288</v>
+        <v>11.715281</v>
       </c>
       <c r="O24">
-        <v>0.1032564837085472</v>
+        <v>0.1232456523180152</v>
       </c>
       <c r="P24">
-        <v>0.1032564837085472</v>
+        <v>0.1232456523180152</v>
       </c>
       <c r="Q24">
-        <v>0.9921710135066667</v>
+        <v>0.8326167359509998</v>
       </c>
       <c r="R24">
-        <v>8.92953912156</v>
+        <v>7.493550623558999</v>
       </c>
       <c r="S24">
-        <v>0.005442186042649679</v>
+        <v>0.003487601185957656</v>
       </c>
       <c r="T24">
-        <v>0.00544218604264968</v>
+        <v>0.003487601185957656</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1966,16 +1966,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G25">
-        <v>0.3078316666666667</v>
+        <v>0.213213</v>
       </c>
       <c r="H25">
-        <v>0.923495</v>
+        <v>0.639639</v>
       </c>
       <c r="I25">
-        <v>0.05270551395117086</v>
+        <v>0.02829796524552828</v>
       </c>
       <c r="J25">
-        <v>0.05270551395117087</v>
+        <v>0.02829796524552828</v>
       </c>
       <c r="K25">
         <v>3</v>
@@ -1984,28 +1984,28 @@
         <v>1</v>
       </c>
       <c r="M25">
-        <v>6.175787666666667</v>
+        <v>6.285238333333333</v>
       </c>
       <c r="N25">
-        <v>18.527363</v>
+        <v>18.855715</v>
       </c>
       <c r="O25">
-        <v>0.1978501783969864</v>
+        <v>0.1983635642284282</v>
       </c>
       <c r="P25">
-        <v>0.1978501783969864</v>
+        <v>0.1983635642284282</v>
       </c>
       <c r="Q25">
-        <v>1.901103010409445</v>
+        <v>1.340094520765</v>
       </c>
       <c r="R25">
-        <v>17.109927093685</v>
+        <v>12.060850686885</v>
       </c>
       <c r="S25">
-        <v>0.01042779533774401</v>
+        <v>0.005613285246515177</v>
       </c>
       <c r="T25">
-        <v>0.01042779533774401</v>
+        <v>0.005613285246515177</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2028,16 +2028,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G26">
-        <v>0.3078316666666667</v>
+        <v>0.213213</v>
       </c>
       <c r="H26">
-        <v>0.923495</v>
+        <v>0.639639</v>
       </c>
       <c r="I26">
-        <v>0.05270551395117086</v>
+        <v>0.02829796524552828</v>
       </c>
       <c r="J26">
-        <v>0.05270551395117087</v>
+        <v>0.02829796524552828</v>
       </c>
       <c r="K26">
         <v>3</v>
@@ -2046,28 +2046,28 @@
         <v>1</v>
       </c>
       <c r="M26">
-        <v>3.120218333333334</v>
+        <v>2.710232666666667</v>
       </c>
       <c r="N26">
-        <v>9.360655000000001</v>
+        <v>8.130698000000001</v>
       </c>
       <c r="O26">
-        <v>0.09996065072307607</v>
+        <v>0.08553556494383548</v>
       </c>
       <c r="P26">
-        <v>0.09996065072307606</v>
+        <v>0.08553556494383548</v>
       </c>
       <c r="Q26">
-        <v>0.960502009913889</v>
+        <v>0.577856837558</v>
       </c>
       <c r="R26">
-        <v>8.644518089225</v>
+        <v>5.200711538022</v>
       </c>
       <c r="S26">
-        <v>0.005268477471253203</v>
+        <v>0.002420482444037283</v>
       </c>
       <c r="T26">
-        <v>0.005268477471253203</v>
+        <v>0.002420482444037283</v>
       </c>
     </row>
   </sheetData>
